--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\Test\.USE THIS TO TEST\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B12D3D-D952-4205-BEA5-82CCDDBEDF80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18780" yWindow="3540" windowWidth="13560" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Notes:</t>
   </si>
@@ -97,18 +88,6 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>Biomass and geothermal are guaranteed at their full "bid capacity factor"</t>
-  </si>
-  <si>
-    <t>as these are typically legacy units that are inflexible.</t>
-  </si>
-  <si>
-    <t>Hydro and nuclear are also "must take" and therefore assigned</t>
-  </si>
-  <si>
-    <t>their full expected capacity factor for guaranteed dispatch.</t>
-  </si>
-  <si>
     <t>crude oil</t>
   </si>
   <si>
@@ -118,16 +97,13 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>Additional Notes for Oregon EPS</t>
-  </si>
-  <si>
-    <t>This information is carried over from the California Model.</t>
+    <t>BAU Guaranteed Dispatch (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,11 +141,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -264,23 +243,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -316,23 +278,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,12 +453,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -560,36 +503,6 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -599,15 +512,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:AK17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -615,7 +526,10 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -737,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:AK8" si="0">$B2</f>
+        <f t="shared" ref="D2:AK9" si="0">$B2</f>
         <v>0</v>
       </c>
       <c r="E2">
@@ -1766,112 +1680,147 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <f t="shared" ref="D9:AK14" si="2">$B9</f>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -1879,112 +1828,147 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -1999,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:AK14" si="2">$B11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11">
@@ -2581,7 +2565,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2694,7 +2678,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2807,7 +2791,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2920,5 +2904,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/elec/bgdpbes/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7E8EB8-4200-D144-BD5E-5D467DE557A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="23000" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -103,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -150,6 +162,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,6 +256,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -278,6 +308,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,54 +500,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C1" s="4">
+        <v>44307</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -512,7 +562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -520,13 +570,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -639,7 +689,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -787,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -935,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1231,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1379,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1527,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2119,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2267,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2415,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2563,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2676,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2789,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/elec/bgdpbes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bgdpbes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7E8EB8-4200-D144-BD5E-5D467DE557A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B831B-97A2-1F47-B0E7-C814EF427FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="23000" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bgdpbes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-oregon\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B831B-97A2-1F47-B0E7-C814EF427FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="23000" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="458" windowWidth="23003" windowHeight="11063"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -115,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,23 +255,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -308,23 +290,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,14 +465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -515,42 +480,42 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -562,21 +527,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="23.46484375" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -689,7 +656,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -837,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -985,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1133,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1281,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1429,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1725,155 +1692,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <f t="shared" ref="D9:AK14" si="2">$B9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2021,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2317,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2465,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2613,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2726,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2839,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>24</v>
       </c>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-oregon\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bgdpbes/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B831B-97A2-1F47-B0E7-C814EF427FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="458" windowWidth="23003" windowHeight="11063"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="23000" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,6 +256,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -290,6 +308,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,14 +500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -480,42 +515,42 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -527,23 +562,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.46484375" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -656,7 +689,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -804,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -952,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1100,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1396,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1544,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1692,155 +1725,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <f t="shared" ref="D9:AK14" si="2">$B9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1988,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2136,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2284,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2432,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2580,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2693,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2806,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bgdpbes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-oregon\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B831B-97A2-1F47-B0E7-C814EF427FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB1CBC9-6B5B-4EDE-AB1F-2D587CB0029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="23000" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -505,9 +505,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -515,42 +515,42 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -568,15 +568,17 @@
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -689,7 +691,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -697,147 +699,112 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>$B2</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:AK9" si="0">$B2</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -845,147 +812,112 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:R12" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -993,147 +925,112 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="V4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1141,591 +1038,451 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="V5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1733,295 +1490,225 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="D9:AK14" si="2">$B9</f>
         <v>0</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2029,147 +1716,112 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2177,147 +1829,112 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2325,295 +1942,225 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <f>$B13</f>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <f>$B14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2726,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2839,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5ACADB9-25D7-4A24-A262-6B44AE0AA146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD30E53C-6357-4246-8CEA-7ED78DBD794F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="2" activeTab="3" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
+    <workbookView xWindow="1800" yWindow="720" windowWidth="13580" windowHeight="10080" firstSheet="2" activeTab="3" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
         <v>133</v>
       </c>
       <c r="C1" s="4">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -54722,8 +54722,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -55324,97 +55324,97 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.75">
@@ -55422,97 +55422,97 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.75">
@@ -56108,97 +56108,97 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.75">
@@ -56794,97 +56794,97 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.75">
@@ -56892,97 +56892,97 @@
         <v>39</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.75">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EE55605-B54E-4E35-A451-33FC68268BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CA47176-B74D-4822-AD14-1A5D82FE782C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="17895" windowHeight="16500" firstSheet="7" activeTab="8" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="9" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
         <v>133</v>
       </c>
       <c r="C1" s="4">
-        <v>45730</v>
+        <v>45744</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -2384,8 +2384,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,8 +6375,8 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8061,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="I48">
         <f>INDEX('petroleum adj'!B:B,MATCH(B48,'petroleum adj'!$A:$A,0))</f>
@@ -88906,8 +88906,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89955,22 +89955,22 @@
         <v>143</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CA47176-B74D-4822-AD14-1A5D82FE782C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D0C5D2F-3741-420D-90E3-0F75EEE7AC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="9" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
@@ -1549,7 +1549,7 @@
         <v>133</v>
       </c>
       <c r="C1" s="4">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -2385,7 +2385,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,6 +2976,7 @@
         <v>0.9</v>
       </c>
       <c r="F6">
+        <f>E6</f>
         <v>0.9</v>
       </c>
       <c r="G6">
@@ -6375,8 +6376,8 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6836,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f>INDEX('petroleum adj'!B:B,MATCH(B13,'petroleum adj'!$A:$A,0))</f>
